--- a/Tortillas.xlsx
+++ b/Tortillas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowan\Desktop\Tools\School\Semester 4\TortillasPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA34E2CF-4BBD-4312-9AFF-9976682779D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E32047-1834-4245-BE06-5A9737E5EF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A795" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="D438" sqref="D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,7 +457,8 @@
     <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" customWidth="1"/>
     <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -6497,7 +6498,9 @@
       <c r="C439" t="s">
         <v>11</v>
       </c>
-      <c r="D439" s="3"/>
+      <c r="D439" s="3">
+        <v>41</v>
+      </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
@@ -6509,7 +6512,9 @@
       <c r="C440" t="s">
         <v>11</v>
       </c>
-      <c r="D440" s="3"/>
+      <c r="D440" s="3">
+        <v>33</v>
+      </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
@@ -6521,7 +6526,9 @@
       <c r="C441" t="s">
         <v>11</v>
       </c>
-      <c r="D441" s="3"/>
+      <c r="D441" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
@@ -6533,7 +6540,9 @@
       <c r="C442" t="s">
         <v>11</v>
       </c>
-      <c r="D442" s="3"/>
+      <c r="D442" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
@@ -6545,7 +6554,9 @@
       <c r="C443" t="s">
         <v>11</v>
       </c>
-      <c r="D443" s="3"/>
+      <c r="D443" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
@@ -6558,7 +6569,7 @@
         <v>11</v>
       </c>
       <c r="D444" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -6572,7 +6583,7 @@
         <v>11</v>
       </c>
       <c r="D445" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
@@ -6586,7 +6597,7 @@
         <v>11</v>
       </c>
       <c r="D446" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
@@ -6600,7 +6611,7 @@
         <v>11</v>
       </c>
       <c r="D447" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
@@ -6614,7 +6625,7 @@
         <v>11</v>
       </c>
       <c r="D448" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
@@ -6628,7 +6639,7 @@
         <v>11</v>
       </c>
       <c r="D449" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
@@ -6642,7 +6653,7 @@
         <v>11</v>
       </c>
       <c r="D450" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
@@ -6656,7 +6667,7 @@
         <v>11</v>
       </c>
       <c r="D451" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
@@ -6670,7 +6681,7 @@
         <v>11</v>
       </c>
       <c r="D452" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
@@ -6684,7 +6695,7 @@
         <v>11</v>
       </c>
       <c r="D453" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
@@ -6698,7 +6709,7 @@
         <v>11</v>
       </c>
       <c r="D454" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
@@ -6712,7 +6723,7 @@
         <v>14</v>
       </c>
       <c r="D455" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
@@ -6726,7 +6737,7 @@
         <v>14</v>
       </c>
       <c r="D456" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
@@ -8699,7 +8710,9 @@
       <c r="C597" t="s">
         <v>13</v>
       </c>
-      <c r="D597" s="3"/>
+      <c r="D597" s="3">
+        <v>23</v>
+      </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="2">
@@ -8711,7 +8724,9 @@
       <c r="C598" t="s">
         <v>13</v>
       </c>
-      <c r="D598" s="3"/>
+      <c r="D598" s="3">
+        <v>29</v>
+      </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="2">
@@ -8723,7 +8738,9 @@
       <c r="C599" t="s">
         <v>13</v>
       </c>
-      <c r="D599" s="3"/>
+      <c r="D599" s="3">
+        <v>35</v>
+      </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="2">
@@ -8735,6 +8752,9 @@
       <c r="C600" t="s">
         <v>13</v>
       </c>
+      <c r="D600" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="2">
@@ -8746,7 +8766,9 @@
       <c r="C601" t="s">
         <v>13</v>
       </c>
-      <c r="D601" s="3"/>
+      <c r="D601" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="2">
@@ -8758,7 +8780,9 @@
       <c r="C602" t="s">
         <v>13</v>
       </c>
-      <c r="D602" s="3"/>
+      <c r="D602" s="3">
+        <v>60</v>
+      </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="2">
@@ -8770,7 +8794,9 @@
       <c r="C603" t="s">
         <v>13</v>
       </c>
-      <c r="D603" s="3"/>
+      <c r="D603" s="3">
+        <v>21</v>
+      </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="2">
@@ -8782,7 +8808,9 @@
       <c r="C604" t="s">
         <v>13</v>
       </c>
-      <c r="D604" s="3"/>
+      <c r="D604" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="2">
@@ -8794,7 +8822,9 @@
       <c r="C605" t="s">
         <v>13</v>
       </c>
-      <c r="D605" s="3"/>
+      <c r="D605" s="3">
+        <v>45</v>
+      </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="2">
@@ -8806,7 +8836,9 @@
       <c r="C606" t="s">
         <v>13</v>
       </c>
-      <c r="D606" s="3"/>
+      <c r="D606" s="3">
+        <v>67</v>
+      </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="2">
@@ -8818,7 +8850,9 @@
       <c r="C607" t="s">
         <v>13</v>
       </c>
-      <c r="D607" s="3"/>
+      <c r="D607" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="2">
@@ -8830,7 +8864,9 @@
       <c r="C608" t="s">
         <v>13</v>
       </c>
-      <c r="D608" s="3"/>
+      <c r="D608" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="2">
@@ -8842,7 +8878,9 @@
       <c r="C609" t="s">
         <v>13</v>
       </c>
-      <c r="D609" s="3"/>
+      <c r="D609" s="3">
+        <v>22</v>
+      </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" s="2">
@@ -8854,7 +8892,9 @@
       <c r="C610" t="s">
         <v>13</v>
       </c>
-      <c r="D610" s="3"/>
+      <c r="D610" s="3">
+        <v>24</v>
+      </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" s="2">
@@ -8866,7 +8906,9 @@
       <c r="C611" t="s">
         <v>13</v>
       </c>
-      <c r="D611" s="3"/>
+      <c r="D611" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="2">
@@ -8878,7 +8920,9 @@
       <c r="C612" t="s">
         <v>13</v>
       </c>
-      <c r="D612" s="3"/>
+      <c r="D612" s="3">
+        <v>37</v>
+      </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" s="2">
@@ -8890,7 +8934,9 @@
       <c r="C613" t="s">
         <v>13</v>
       </c>
-      <c r="D613" s="3"/>
+      <c r="D613" s="3">
+        <v>46</v>
+      </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" s="2">
@@ -8902,7 +8948,9 @@
       <c r="C614" t="s">
         <v>13</v>
       </c>
-      <c r="D614" s="3"/>
+      <c r="D614" s="3">
+        <v>26</v>
+      </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" s="2">
@@ -8914,7 +8962,9 @@
       <c r="C615" t="s">
         <v>13</v>
       </c>
-      <c r="D615" s="3"/>
+      <c r="D615" s="3">
+        <v>26</v>
+      </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" s="2">
@@ -8926,7 +8976,9 @@
       <c r="C616" t="s">
         <v>13</v>
       </c>
-      <c r="D616" s="3"/>
+      <c r="D616" s="3">
+        <v>28</v>
+      </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="2">
@@ -8938,7 +8990,9 @@
       <c r="C617" t="s">
         <v>13</v>
       </c>
-      <c r="D617" s="3"/>
+      <c r="D617" s="3">
+        <v>36</v>
+      </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" s="2">
@@ -8950,7 +9004,9 @@
       <c r="C618" t="s">
         <v>13</v>
       </c>
-      <c r="D618" s="3"/>
+      <c r="D618" s="3">
+        <v>26</v>
+      </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="2">
@@ -8962,7 +9018,9 @@
       <c r="C619" t="s">
         <v>13</v>
       </c>
-      <c r="D619" s="3"/>
+      <c r="D619" s="3">
+        <v>60</v>
+      </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="2">
@@ -8974,7 +9032,9 @@
       <c r="C620" t="s">
         <v>13</v>
       </c>
-      <c r="D620" s="3"/>
+      <c r="D620" s="3">
+        <v>52</v>
+      </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" s="2">
@@ -8986,7 +9046,9 @@
       <c r="C621" t="s">
         <v>13</v>
       </c>
-      <c r="D621" s="3"/>
+      <c r="D621" s="3">
+        <v>35</v>
+      </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="2">
@@ -8998,7 +9060,9 @@
       <c r="C622" t="s">
         <v>13</v>
       </c>
-      <c r="D622" s="3"/>
+      <c r="D622" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" s="2">
@@ -9010,7 +9074,9 @@
       <c r="C623" t="s">
         <v>13</v>
       </c>
-      <c r="D623" s="3"/>
+      <c r="D623" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" s="2">
@@ -9022,7 +9088,9 @@
       <c r="C624" t="s">
         <v>13</v>
       </c>
-      <c r="D624" s="3"/>
+      <c r="D624" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="2">
@@ -9034,7 +9102,9 @@
       <c r="C625" t="s">
         <v>13</v>
       </c>
-      <c r="D625" s="3"/>
+      <c r="D625" s="3">
+        <v>23</v>
+      </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="2">
@@ -9103,7 +9173,7 @@
         <v>13</v>
       </c>
       <c r="D630" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.3">
@@ -10404,6 +10474,9 @@
       <c r="C723" t="s">
         <v>12</v>
       </c>
+      <c r="D723" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" s="2">
@@ -10415,6 +10488,9 @@
       <c r="C724" t="s">
         <v>12</v>
       </c>
+      <c r="D724" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" s="2">
@@ -10426,6 +10502,9 @@
       <c r="C725" t="s">
         <v>12</v>
       </c>
+      <c r="D725" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" s="2">
@@ -10437,6 +10516,9 @@
       <c r="C726" t="s">
         <v>12</v>
       </c>
+      <c r="D726" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" s="2">
@@ -10448,6 +10530,9 @@
       <c r="C727" t="s">
         <v>12</v>
       </c>
+      <c r="D727" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" s="2">
@@ -10459,6 +10544,9 @@
       <c r="C728" t="s">
         <v>12</v>
       </c>
+      <c r="D728" s="1">
+        <v>31</v>
+      </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" s="2">
@@ -10470,6 +10558,9 @@
       <c r="C729" t="s">
         <v>12</v>
       </c>
+      <c r="D729" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" s="2">
@@ -10481,6 +10572,9 @@
       <c r="C730" t="s">
         <v>12</v>
       </c>
+      <c r="D730" s="1">
+        <v>34</v>
+      </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" s="2">
@@ -10492,6 +10586,9 @@
       <c r="C731" t="s">
         <v>11</v>
       </c>
+      <c r="D731" s="1">
+        <v>88</v>
+      </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" s="2">
@@ -10503,6 +10600,9 @@
       <c r="C732" t="s">
         <v>11</v>
       </c>
+      <c r="D732" s="1">
+        <v>66</v>
+      </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" s="2">
@@ -10514,6 +10614,9 @@
       <c r="C733" t="s">
         <v>11</v>
       </c>
+      <c r="D733" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" s="2">
@@ -10525,6 +10628,9 @@
       <c r="C734" t="s">
         <v>11</v>
       </c>
+      <c r="D734" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" s="2">
@@ -10536,6 +10642,9 @@
       <c r="C735" t="s">
         <v>11</v>
       </c>
+      <c r="D735" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" s="2">
@@ -10547,8 +10656,11 @@
       <c r="C736" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D736" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" s="2">
         <v>44633</v>
       </c>
@@ -10558,8 +10670,11 @@
       <c r="C737" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D737" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" s="2">
         <v>44632</v>
       </c>
@@ -10569,8 +10684,11 @@
       <c r="C738" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D738" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" s="2">
         <v>44631</v>
       </c>
@@ -10580,8 +10698,11 @@
       <c r="C739" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D739" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" s="2">
         <v>44630</v>
       </c>
@@ -10591,8 +10712,11 @@
       <c r="C740" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D740" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" s="2">
         <v>44629</v>
       </c>
@@ -10602,8 +10726,11 @@
       <c r="C741" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D741" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" s="2">
         <v>44628</v>
       </c>
@@ -10613,8 +10740,11 @@
       <c r="C742" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D742" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" s="2">
         <v>44627</v>
       </c>
@@ -10624,8 +10754,11 @@
       <c r="C743" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D743" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" s="2">
         <v>44626</v>
       </c>
@@ -10635,8 +10768,11 @@
       <c r="C744" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D744" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" s="2">
         <v>44625</v>
       </c>
@@ -10646,8 +10782,11 @@
       <c r="C745" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D745" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" s="2">
         <v>44624</v>
       </c>
@@ -10657,8 +10796,11 @@
       <c r="C746" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D746" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" s="2">
         <v>44623</v>
       </c>
@@ -10668,8 +10810,11 @@
       <c r="C747" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D747" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" s="2">
         <v>44622</v>
       </c>
@@ -10679,8 +10824,11 @@
       <c r="C748" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D748" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" s="2">
         <v>44621</v>
       </c>
@@ -10690,8 +10838,11 @@
       <c r="C749" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D749" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" s="2">
         <v>44620</v>
       </c>
@@ -10701,8 +10852,11 @@
       <c r="C750" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D750" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" s="2">
         <v>44619</v>
       </c>
@@ -10712,8 +10866,11 @@
       <c r="C751" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D751" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" s="2">
         <v>44618</v>
       </c>
@@ -10723,8 +10880,11 @@
       <c r="C752" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D752" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" s="2">
         <v>44617</v>
       </c>
@@ -10734,8 +10894,11 @@
       <c r="C753" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D753" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" s="2">
         <v>44616</v>
       </c>
@@ -10745,8 +10908,11 @@
       <c r="C754" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D754" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" s="2">
         <v>44615</v>
       </c>
@@ -10756,8 +10922,11 @@
       <c r="C755" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D755" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" s="2">
         <v>44614</v>
       </c>
@@ -10767,8 +10936,11 @@
       <c r="C756" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D756" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" s="2">
         <v>44613</v>
       </c>
@@ -10778,8 +10950,11 @@
       <c r="C757" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D757" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" s="2">
         <v>44612</v>
       </c>
@@ -10789,8 +10964,11 @@
       <c r="C758" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D758" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" s="2">
         <v>44611</v>
       </c>
@@ -10800,8 +10978,11 @@
       <c r="C759" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D759" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" s="2">
         <v>44610</v>
       </c>
@@ -10811,8 +10992,11 @@
       <c r="C760" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D760" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" s="2">
         <v>44609</v>
       </c>
@@ -10822,8 +11006,11 @@
       <c r="C761" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D761" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" s="2">
         <v>44608</v>
       </c>
@@ -10833,8 +11020,11 @@
       <c r="C762" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D762" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" s="2">
         <v>44607</v>
       </c>
@@ -10844,8 +11034,11 @@
       <c r="C763" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D763" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" s="2">
         <v>44606</v>
       </c>
@@ -10855,8 +11048,11 @@
       <c r="C764" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D764" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" s="2">
         <v>44605</v>
       </c>
@@ -10866,8 +11062,11 @@
       <c r="C765" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D765" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" s="2">
         <v>44604</v>
       </c>
@@ -10877,8 +11076,11 @@
       <c r="C766" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D766" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" s="2">
         <v>44603</v>
       </c>
@@ -10888,8 +11090,11 @@
       <c r="C767" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D767" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" s="2">
         <v>44602</v>
       </c>
@@ -10898,6 +11103,9 @@
       </c>
       <c r="C768" t="s">
         <v>11</v>
+      </c>
+      <c r="D768" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.3">
@@ -10910,6 +11118,9 @@
       <c r="C769" t="s">
         <v>11</v>
       </c>
+      <c r="D769" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" s="2">
@@ -10921,6 +11132,9 @@
       <c r="C770" t="s">
         <v>11</v>
       </c>
+      <c r="D770" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" s="2">
@@ -10932,6 +11146,9 @@
       <c r="C771" t="s">
         <v>11</v>
       </c>
+      <c r="D771" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" s="2">
@@ -10943,6 +11160,9 @@
       <c r="C772" t="s">
         <v>11</v>
       </c>
+      <c r="D772" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" s="2">
@@ -11108,8 +11328,11 @@
       <c r="C784" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D784" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" s="2">
         <v>44585</v>
       </c>
@@ -11119,8 +11342,11 @@
       <c r="C785" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D785" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" s="2">
         <v>44584</v>
       </c>
@@ -11130,8 +11356,11 @@
       <c r="C786" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D786" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" s="2">
         <v>44583</v>
       </c>
@@ -11141,8 +11370,11 @@
       <c r="C787" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D787" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" s="2">
         <v>44582</v>
       </c>
@@ -11152,8 +11384,11 @@
       <c r="C788" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D788" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" s="2">
         <v>44581</v>
       </c>
@@ -11163,8 +11398,11 @@
       <c r="C789" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D789" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" s="2">
         <v>44580</v>
       </c>
@@ -11174,8 +11412,11 @@
       <c r="C790" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D790" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" s="2">
         <v>44579</v>
       </c>
@@ -11185,8 +11426,11 @@
       <c r="C791" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D791" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" s="2">
         <v>44578</v>
       </c>
@@ -11196,8 +11440,11 @@
       <c r="C792" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D792" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" s="2">
         <v>44577</v>
       </c>
@@ -11207,8 +11454,11 @@
       <c r="C793" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D793" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" s="2">
         <v>44576</v>
       </c>
@@ -11218,8 +11468,11 @@
       <c r="C794" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D794" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" s="2">
         <v>44575</v>
       </c>
@@ -11229,8 +11482,11 @@
       <c r="C795" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D795" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" s="2">
         <v>44574</v>
       </c>
@@ -11240,8 +11496,11 @@
       <c r="C796" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D796" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" s="2">
         <v>44573</v>
       </c>
@@ -11251,8 +11510,11 @@
       <c r="C797" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D797" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" s="2">
         <v>44572</v>
       </c>
@@ -11262,8 +11524,11 @@
       <c r="C798" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D798" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" s="2">
         <v>44571</v>
       </c>
@@ -11273,8 +11538,11 @@
       <c r="C799" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D799" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" s="2">
         <v>44570</v>
       </c>
@@ -11284,8 +11552,11 @@
       <c r="C800" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D800" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801" s="2">
         <v>44569</v>
       </c>
@@ -11295,8 +11566,11 @@
       <c r="C801" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D801" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A802" s="2">
         <v>44568</v>
       </c>
@@ -11306,8 +11580,11 @@
       <c r="C802" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D802" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A803" s="2">
         <v>44567</v>
       </c>
@@ -11317,8 +11594,11 @@
       <c r="C803" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D803" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A804" s="2">
         <v>44566</v>
       </c>
@@ -11328,8 +11608,11 @@
       <c r="C804" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D804" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A805" s="2">
         <v>44565</v>
       </c>
@@ -11339,8 +11622,11 @@
       <c r="C805" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D805" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A806" s="2">
         <v>44564</v>
       </c>
@@ -11350,8 +11636,11 @@
       <c r="C806" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D806" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A807" s="2">
         <v>44563</v>
       </c>
@@ -11361,8 +11650,11 @@
       <c r="C807" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D807" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A808" s="2">
         <v>44562</v>
       </c>
@@ -11372,11 +11664,14 @@
       <c r="C808" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D808" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A809" s="2"/>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A810" s="2"/>
     </row>
   </sheetData>

--- a/Tortillas.xlsx
+++ b/Tortillas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowan\Desktop\Tools\School\Semester 4\TortillasPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E32047-1834-4245-BE06-5A9737E5EF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BA8A21-DAB6-46E0-B78C-DB0351840A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="D438" sqref="D438"/>
+    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="D450" sqref="D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5875,7 +5875,9 @@
       <c r="C387" t="s">
         <v>11</v>
       </c>
-      <c r="D387" s="6"/>
+      <c r="D387" s="6">
+        <v>64</v>
+      </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
@@ -5887,7 +5889,9 @@
       <c r="C388" t="s">
         <v>11</v>
       </c>
-      <c r="D388" s="9"/>
+      <c r="D388" s="9">
+        <v>95</v>
+      </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
@@ -5899,7 +5903,9 @@
       <c r="C389" t="s">
         <v>11</v>
       </c>
-      <c r="D389" s="8"/>
+      <c r="D389" s="8">
+        <v>71</v>
+      </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
@@ -5911,7 +5917,9 @@
       <c r="C390" t="s">
         <v>11</v>
       </c>
-      <c r="D390" s="8"/>
+      <c r="D390" s="8">
+        <v>35</v>
+      </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
@@ -5923,7 +5931,9 @@
       <c r="C391" t="s">
         <v>11</v>
       </c>
-      <c r="D391" s="8"/>
+      <c r="D391" s="8">
+        <v>19</v>
+      </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
@@ -5935,7 +5945,9 @@
       <c r="C392" t="s">
         <v>11</v>
       </c>
-      <c r="D392" s="8"/>
+      <c r="D392" s="8">
+        <v>19</v>
+      </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
@@ -5947,7 +5959,9 @@
       <c r="C393" t="s">
         <v>11</v>
       </c>
-      <c r="D393" s="8"/>
+      <c r="D393" s="8">
+        <v>33</v>
+      </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
@@ -5959,7 +5973,9 @@
       <c r="C394" t="s">
         <v>11</v>
       </c>
-      <c r="D394" s="8"/>
+      <c r="D394" s="8">
+        <v>30</v>
+      </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
@@ -5971,7 +5987,9 @@
       <c r="C395" t="s">
         <v>11</v>
       </c>
-      <c r="D395" s="8"/>
+      <c r="D395" s="8">
+        <v>85</v>
+      </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
@@ -5983,7 +6001,9 @@
       <c r="C396" t="s">
         <v>11</v>
       </c>
-      <c r="D396" s="6"/>
+      <c r="D396" s="6">
+        <v>51</v>
+      </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
@@ -5995,7 +6015,9 @@
       <c r="C397" t="s">
         <v>11</v>
       </c>
-      <c r="D397" s="6"/>
+      <c r="D397" s="6">
+        <v>28</v>
+      </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
@@ -6007,7 +6029,9 @@
       <c r="C398" t="s">
         <v>11</v>
       </c>
-      <c r="D398" s="6"/>
+      <c r="D398" s="6">
+        <v>21</v>
+      </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
@@ -6019,7 +6043,9 @@
       <c r="C399" t="s">
         <v>11</v>
       </c>
-      <c r="D399" s="6"/>
+      <c r="D399" s="6">
+        <v>48</v>
+      </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
@@ -6031,7 +6057,9 @@
       <c r="C400" t="s">
         <v>11</v>
       </c>
-      <c r="D400" s="6"/>
+      <c r="D400" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
@@ -6043,7 +6071,9 @@
       <c r="C401" t="s">
         <v>11</v>
       </c>
-      <c r="D401" s="3"/>
+      <c r="D401" s="3">
+        <v>49</v>
+      </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
@@ -6055,7 +6085,9 @@
       <c r="C402" t="s">
         <v>11</v>
       </c>
-      <c r="D402" s="3"/>
+      <c r="D402" s="3">
+        <v>77</v>
+      </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
@@ -6067,7 +6099,9 @@
       <c r="C403" t="s">
         <v>11</v>
       </c>
-      <c r="D403" s="3"/>
+      <c r="D403" s="3">
+        <v>77</v>
+      </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
@@ -6079,7 +6113,9 @@
       <c r="C404" t="s">
         <v>11</v>
       </c>
-      <c r="D404" s="3"/>
+      <c r="D404" s="3">
+        <v>36</v>
+      </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
@@ -6091,7 +6127,9 @@
       <c r="C405" t="s">
         <v>11</v>
       </c>
-      <c r="D405" s="3"/>
+      <c r="D405" s="3">
+        <v>48</v>
+      </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
@@ -6103,7 +6141,9 @@
       <c r="C406" t="s">
         <v>11</v>
       </c>
-      <c r="D406" s="3"/>
+      <c r="D406" s="3">
+        <v>32</v>
+      </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
@@ -6115,7 +6155,9 @@
       <c r="C407" t="s">
         <v>11</v>
       </c>
-      <c r="D407" s="3"/>
+      <c r="D407" s="3">
+        <v>30</v>
+      </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
@@ -6127,7 +6169,9 @@
       <c r="C408" t="s">
         <v>11</v>
       </c>
-      <c r="D408" s="3"/>
+      <c r="D408" s="3">
+        <v>39</v>
+      </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
@@ -6139,7 +6183,9 @@
       <c r="C409" t="s">
         <v>11</v>
       </c>
-      <c r="D409" s="3"/>
+      <c r="D409" s="3">
+        <v>57</v>
+      </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
@@ -6151,7 +6197,9 @@
       <c r="C410" t="s">
         <v>11</v>
       </c>
-      <c r="D410" s="3"/>
+      <c r="D410" s="3">
+        <v>82</v>
+      </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
@@ -6163,7 +6211,9 @@
       <c r="C411" t="s">
         <v>11</v>
       </c>
-      <c r="D411" s="3"/>
+      <c r="D411" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
@@ -6175,7 +6225,9 @@
       <c r="C412" t="s">
         <v>11</v>
       </c>
-      <c r="D412" s="3"/>
+      <c r="D412" s="3">
+        <v>18</v>
+      </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
@@ -6187,7 +6239,9 @@
       <c r="C413" t="s">
         <v>11</v>
       </c>
-      <c r="D413" s="3"/>
+      <c r="D413" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
@@ -6199,7 +6253,9 @@
       <c r="C414" t="s">
         <v>11</v>
       </c>
-      <c r="D414" s="3"/>
+      <c r="D414" s="3">
+        <v>33</v>
+      </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
@@ -6211,7 +6267,9 @@
       <c r="C415" t="s">
         <v>11</v>
       </c>
-      <c r="D415" s="3"/>
+      <c r="D415" s="3">
+        <v>41</v>
+      </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
@@ -6223,7 +6281,9 @@
       <c r="C416" t="s">
         <v>11</v>
       </c>
-      <c r="D416" s="3"/>
+      <c r="D416" s="3">
+        <v>94</v>
+      </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
@@ -6235,7 +6295,9 @@
       <c r="C417" t="s">
         <v>11</v>
       </c>
-      <c r="D417" s="3"/>
+      <c r="D417" s="3">
+        <v>96</v>
+      </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
@@ -6247,7 +6309,9 @@
       <c r="C418" t="s">
         <v>11</v>
       </c>
-      <c r="D418" s="3"/>
+      <c r="D418" s="3">
+        <v>21</v>
+      </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
@@ -6259,7 +6323,9 @@
       <c r="C419" t="s">
         <v>11</v>
       </c>
-      <c r="D419" s="3"/>
+      <c r="D419" s="3">
+        <v>32</v>
+      </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
@@ -6271,7 +6337,9 @@
       <c r="C420" t="s">
         <v>11</v>
       </c>
-      <c r="D420" s="3"/>
+      <c r="D420" s="3">
+        <v>34</v>
+      </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
@@ -6283,7 +6351,9 @@
       <c r="C421" t="s">
         <v>11</v>
       </c>
-      <c r="D421" s="3"/>
+      <c r="D421" s="3">
+        <v>21</v>
+      </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
@@ -6295,7 +6365,9 @@
       <c r="C422" t="s">
         <v>11</v>
       </c>
-      <c r="D422" s="3"/>
+      <c r="D422" s="3">
+        <v>29</v>
+      </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
@@ -6307,7 +6379,9 @@
       <c r="C423" t="s">
         <v>11</v>
       </c>
-      <c r="D423" s="3"/>
+      <c r="D423" s="3">
+        <v>69</v>
+      </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
@@ -6319,7 +6393,9 @@
       <c r="C424" t="s">
         <v>11</v>
       </c>
-      <c r="D424" s="3"/>
+      <c r="D424" s="3">
+        <v>48</v>
+      </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
@@ -6331,6 +6407,9 @@
       <c r="C425" t="s">
         <v>11</v>
       </c>
+      <c r="D425" s="1">
+        <v>34</v>
+      </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
@@ -6342,7 +6421,9 @@
       <c r="C426" t="s">
         <v>11</v>
       </c>
-      <c r="D426" s="3"/>
+      <c r="D426" s="3">
+        <v>23</v>
+      </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
@@ -6354,7 +6435,9 @@
       <c r="C427" t="s">
         <v>11</v>
       </c>
-      <c r="D427" s="3"/>
+      <c r="D427" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
@@ -6366,7 +6449,9 @@
       <c r="C428" t="s">
         <v>11</v>
       </c>
-      <c r="D428" s="3"/>
+      <c r="D428" s="3">
+        <v>28</v>
+      </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
@@ -6378,7 +6463,9 @@
       <c r="C429" t="s">
         <v>11</v>
       </c>
-      <c r="D429" s="3"/>
+      <c r="D429" s="3">
+        <v>51</v>
+      </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
@@ -6390,7 +6477,9 @@
       <c r="C430" t="s">
         <v>11</v>
       </c>
-      <c r="D430" s="3"/>
+      <c r="D430" s="3">
+        <v>89</v>
+      </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
@@ -6402,7 +6491,9 @@
       <c r="C431" t="s">
         <v>11</v>
       </c>
-      <c r="D431" s="3"/>
+      <c r="D431" s="3">
+        <v>52</v>
+      </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
@@ -6414,7 +6505,9 @@
       <c r="C432" t="s">
         <v>11</v>
       </c>
-      <c r="D432" s="3"/>
+      <c r="D432" s="3">
+        <v>37</v>
+      </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
@@ -6426,7 +6519,9 @@
       <c r="C433" t="s">
         <v>11</v>
       </c>
-      <c r="D433" s="3"/>
+      <c r="D433" s="3">
+        <v>29</v>
+      </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
@@ -6438,7 +6533,9 @@
       <c r="C434" t="s">
         <v>11</v>
       </c>
-      <c r="D434" s="3"/>
+      <c r="D434" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
@@ -6450,7 +6547,9 @@
       <c r="C435" t="s">
         <v>11</v>
       </c>
-      <c r="D435" s="3"/>
+      <c r="D435" s="3">
+        <v>18</v>
+      </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
@@ -6462,7 +6561,9 @@
       <c r="C436" t="s">
         <v>11</v>
       </c>
-      <c r="D436" s="3"/>
+      <c r="D436" s="3">
+        <v>46</v>
+      </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
@@ -6474,7 +6575,9 @@
       <c r="C437" t="s">
         <v>11</v>
       </c>
-      <c r="D437" s="3"/>
+      <c r="D437" s="3">
+        <v>95</v>
+      </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
@@ -6486,7 +6589,9 @@
       <c r="C438" t="s">
         <v>11</v>
       </c>
-      <c r="D438" s="3"/>
+      <c r="D438" s="3">
+        <v>87</v>
+      </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
@@ -6499,7 +6604,7 @@
         <v>11</v>
       </c>
       <c r="D439" s="3">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -6513,7 +6618,7 @@
         <v>11</v>
       </c>
       <c r="D440" s="3">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
